--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2322470.644066342</v>
+        <v>2438002.158932508</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.296491434383</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>182.55701200868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>82.45891482618649</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>51.21178417960131</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>124.4693923135016</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>73.15258559670173</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537556</v>
+        <v>349.229934453754</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.229934453754</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537556</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>289.2714774830827</v>
+        <v>349.229934453754</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>57.68027527909255</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>103.8974541908715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969025</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>105.5269019740115</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419595</v>
+        <v>38.47015094419606</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612028</v>
+        <v>8.321493021612213</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>53.97567692853433</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.71948965024238</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057387</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>121.5357799573321</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>254.674276800407</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>192.0440287870462</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>36.08033598743188</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>227.4780885457191</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>167.6689284705439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4774956074566125</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>107.1685137621111</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.3062202753126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.25102067617318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>33.55293486399931</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>30.87238256912046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>64.36993339924405</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>94.03099112488329</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>100.7197280522375</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.3932148259954</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>65.44930784064712</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>116.287325111933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.57972681915321</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>3.475606507923219</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>259.7145638219845</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>20.89983420622114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>122.4770547252864</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.62554568141394</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.4665281367401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.3243999861102</v>
       </c>
       <c r="H46" t="n">
-        <v>20.92847288552894</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>590.2069027719631</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="C2" t="n">
-        <v>400.7871177554784</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="D2" t="n">
-        <v>400.7871177554784</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389937</v>
+        <v>388.8228542207803</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>199.4030692042955</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4328,16 +4330,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4346,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>738.622248520147</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652792</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652792</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652792</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652792</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652792</v>
+        <v>578.2426392372651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4410,49 +4412,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198755</v>
+        <v>639.6274591265636</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198755</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="U3" t="n">
-        <v>547.0901982909853</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="V3" t="n">
-        <v>547.0901982909853</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="W3" t="n">
-        <v>357.6704132745007</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6704132745007</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6704132745007</v>
+        <v>450.2076741100789</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.6270533382975</v>
+        <v>486.8348293743325</v>
       </c>
       <c r="C4" t="n">
-        <v>183.6908704103906</v>
+        <v>317.8986464464256</v>
       </c>
       <c r="D4" t="n">
-        <v>183.6908704103906</v>
+        <v>317.8986464464256</v>
       </c>
       <c r="E4" t="n">
-        <v>183.6908704103906</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
         <v>15.00204697330559</v>
@@ -4489,49 +4491,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
         <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>465.253018269215</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638716</v>
+        <v>650.9033495638719</v>
       </c>
       <c r="O4" t="n">
-        <v>652.2303032981981</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575112</v>
+        <v>612.5614882768593</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575112</v>
+        <v>486.8348293743325</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575112</v>
+        <v>486.8348293743325</v>
       </c>
       <c r="U4" t="n">
-        <v>615.9383389575112</v>
+        <v>486.8348293743325</v>
       </c>
       <c r="V4" t="n">
-        <v>426.5185539410265</v>
+        <v>486.8348293743325</v>
       </c>
       <c r="W4" t="n">
-        <v>352.6270533382975</v>
+        <v>486.8348293743325</v>
       </c>
       <c r="X4" t="n">
-        <v>352.6270533382975</v>
+        <v>486.8348293743325</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.6270533382975</v>
+        <v>486.8348293743325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>790.5011244214426</v>
+        <v>896.6632416022318</v>
       </c>
       <c r="C5" t="n">
-        <v>790.5011244214426</v>
+        <v>896.6632416022318</v>
       </c>
       <c r="D5" t="n">
-        <v>790.5011244214426</v>
+        <v>543.9057320529853</v>
       </c>
       <c r="E5" t="n">
-        <v>437.7436148721945</v>
+        <v>543.9057320529853</v>
       </c>
       <c r="F5" t="n">
-        <v>145.550203273121</v>
+        <v>191.1482225037388</v>
       </c>
       <c r="G5" t="n">
-        <v>132.885318181423</v>
+        <v>132.8853181814231</v>
       </c>
       <c r="H5" t="n">
-        <v>132.885318181423</v>
+        <v>132.8853181814231</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630032</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874614</v>
+        <v>80.99020340874563</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620534</v>
+        <v>211.2396305620523</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458668</v>
+        <v>409.7273242458648</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973833</v>
+        <v>662.2525653973804</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365755</v>
+        <v>923.4777373365717</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477534</v>
+        <v>1156.809998477529</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169735</v>
+        <v>1321.45268416973</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815016</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815016</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815022</v>
+        <v>1249.420751151478</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815022</v>
+        <v>1249.420751151478</v>
       </c>
       <c r="U5" t="n">
-        <v>1143.258633970691</v>
+        <v>1249.420751151478</v>
       </c>
       <c r="V5" t="n">
-        <v>1143.258633970691</v>
+        <v>1249.420751151478</v>
       </c>
       <c r="W5" t="n">
-        <v>1143.258633970691</v>
+        <v>1249.420751151478</v>
       </c>
       <c r="X5" t="n">
-        <v>1143.258633970691</v>
+        <v>1249.420751151478</v>
       </c>
       <c r="Y5" t="n">
-        <v>1143.258633970691</v>
+        <v>1249.420751151478</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322.3243730218016</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="C6" t="n">
-        <v>215.7315427450224</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="D6" t="n">
-        <v>66.79713308377112</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="E6" t="n">
-        <v>66.79713308377112</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377112</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377112</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>66.79713308377109</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630032</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143075</v>
+        <v>40.71784159143034</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379371</v>
+        <v>140.7147764379362</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824494</v>
+        <v>321.4955368824479</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158611</v>
+        <v>551.8150256158589</v>
       </c>
       <c r="N6" t="n">
-        <v>897.5526607250791</v>
+        <v>802.6390307947626</v>
       </c>
       <c r="O6" t="n">
-        <v>1104.787827818163</v>
+        <v>1009.874197887846</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983951</v>
+        <v>1156.865623411829</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815016</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308343</v>
+        <v>1388.514189308337</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308343</v>
+        <v>1242.84871388042</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308343</v>
+        <v>1046.684307603432</v>
       </c>
       <c r="U6" t="n">
-        <v>1160.388865740558</v>
+        <v>818.5589840356466</v>
       </c>
       <c r="V6" t="n">
-        <v>1160.388865740558</v>
+        <v>583.4068758039039</v>
       </c>
       <c r="W6" t="n">
-        <v>906.1515090123564</v>
+        <v>329.1695190757022</v>
       </c>
       <c r="X6" t="n">
-        <v>698.3000088068236</v>
+        <v>121.3180188701694</v>
       </c>
       <c r="Y6" t="n">
-        <v>490.5397100418697</v>
+        <v>66.79713308377109</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.3432228829548</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="C7" t="n">
-        <v>297.4070399550479</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="D7" t="n">
-        <v>147.2904005427122</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="E7" t="n">
-        <v>147.2904005427122</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="F7" t="n">
-        <v>147.2904005427122</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="G7" t="n">
-        <v>147.2904005427122</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2904005427122</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630045</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630045</v>
+        <v>27.93839475630032</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874691</v>
+        <v>148.5233105874686</v>
       </c>
       <c r="L7" t="n">
-        <v>358.356921520864</v>
+        <v>358.3569215208632</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014275</v>
+        <v>589.9861665014264</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750249</v>
+        <v>821.5424021750234</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.405768767884</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612031</v>
+        <v>1165.191378612029</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049269</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950957</v>
+        <v>1059.927283950954</v>
       </c>
       <c r="S7" t="n">
-        <v>855.4770491322814</v>
+        <v>1059.927283950954</v>
       </c>
       <c r="T7" t="n">
-        <v>855.4770491322814</v>
+        <v>835.0311720137584</v>
       </c>
       <c r="U7" t="n">
-        <v>855.4770491322814</v>
+        <v>577.784427770923</v>
       </c>
       <c r="V7" t="n">
-        <v>855.4770491322814</v>
+        <v>323.0999395650361</v>
       </c>
       <c r="W7" t="n">
-        <v>566.0598790953209</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="X7" t="n">
-        <v>566.0598790953209</v>
+        <v>33.68276952807546</v>
       </c>
       <c r="Y7" t="n">
-        <v>566.0598790953209</v>
+        <v>33.68276952807546</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.784838233996</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>1085.574752076239</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>727.3090534694886</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>727.3090534694886</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2525.894544574467</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.313483838646</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.250596495076</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1941.250596495076</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1567.784838233996</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1567.784838233996</v>
+        <v>1841.137109080772</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,58 +4938,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.8272960668249</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
@@ -4996,16 +4998,16 @@
         <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>884.4796379287984</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8383149077151</v>
+        <v>595.0624678918377</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8383149077151</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="Y10" t="n">
-        <v>655.4757608970647</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5118,13 +5120,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2271.666355830531</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2052.064890853472</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,49 +5260,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156759</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314346</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>803.8641191832228</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5512,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3200.825397924057</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C22" t="n">
-        <v>3031.88921499615</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583814</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>269.4203476037529</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>127.708516445951</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>4120.673162832804</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3831.255992795844</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.266441897827</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3382.473862754297</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5980,22 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6066,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3110.333886317437</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C25" t="n">
-        <v>2941.39770338953</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>2941.39770338953</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444211</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.75572940725</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3512.774930291207</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>3291.982351147677</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,10 +6317,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6491,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6545,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2072.35525930079</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>3113.844599961805</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>2944.908417033898</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2794.791777621562</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2794.791777621562</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="V31" t="n">
-        <v>1790.525374274257</v>
+        <v>4033.692364870552</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>3744.275194833592</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>3516.285643935575</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>3295.493064792045</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6682,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6740,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2405.973460530611</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2405.973460530611</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2186.371995553553</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1897.296768897751</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V34" t="n">
-        <v>1642.612280691864</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W34" t="n">
-        <v>1353.195110654903</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,25 +6952,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.647281583949</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243707</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812249</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3598.088325557719</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3598.088325557719</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3377.295746414189</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958739</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C40" t="n">
-        <v>802.9288273958739</v>
+        <v>886.249074742708</v>
       </c>
       <c r="D40" t="n">
-        <v>652.8121879835381</v>
+        <v>736.1324353303722</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>588.2193417479791</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>441.3293942500687</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261136</v>
+        <v>1236.833722500854</v>
       </c>
     </row>
     <row r="41">
@@ -7403,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X43" t="n">
-        <v>1398.968683817746</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,13 +7642,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7658,28 +7660,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474266</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474266</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F46" t="n">
-        <v>114.9565346495163</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G46" t="n">
-        <v>114.9565346495163</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8143,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>98.86065188594071</v>
       </c>
       <c r="P4" t="n">
-        <v>116.9682609530344</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898944</v>
+        <v>41.92993463898978</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>95.8723534649632</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.77758145636784</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>193.6499349213293</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>224.3355197601776</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.3544845744807</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>73.85777223953347</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.2784330767822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.5809595057641</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>47.71290145456621</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>221.2652607547075</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6786642641539</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>66.52709304639036</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.7912595632487</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>79.97174018228412</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.79551989096845</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.7088678813209</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>26.80843451460652</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>125.534128440348</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>43.04708356698241</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172139</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>5.19973830615865</v>
       </c>
       <c r="H46" t="n">
-        <v>119.3662399606949</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597553</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427117</v>
+        <v>178997.5061427099</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731208</v>
+        <v>301519.8707731226</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854447</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267276</v>
+        <v>41617.52445267246</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019555</v>
+        <v>73739.30240019581</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806969</v>
+        <v>229588.1389806973</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26427,37 +26429,37 @@
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184278</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029177</v>
+        <v>69851.97930029164</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26522,46 +26524,46 @@
         <v>-289506.1797183524</v>
       </c>
       <c r="C6" t="n">
-        <v>157869.7472211194</v>
+        <v>157869.7472211205</v>
       </c>
       <c r="D6" t="n">
-        <v>96694.49773391651</v>
+        <v>96694.4977339145</v>
       </c>
       <c r="E6" t="n">
-        <v>3323.835199458903</v>
+        <v>3323.835199458845</v>
       </c>
       <c r="F6" t="n">
+        <v>510809.2768240052</v>
+      </c>
+      <c r="G6" t="n">
+        <v>510809.2768240055</v>
+      </c>
+      <c r="H6" t="n">
+        <v>510809.2768240051</v>
+      </c>
+      <c r="I6" t="n">
+        <v>510809.2768240051</v>
+      </c>
+      <c r="J6" t="n">
+        <v>461744.3320954604</v>
+      </c>
+      <c r="K6" t="n">
+        <v>469191.7523713325</v>
+      </c>
+      <c r="L6" t="n">
+        <v>437069.9744238092</v>
+      </c>
+      <c r="M6" t="n">
+        <v>378201.9830950784</v>
+      </c>
+      <c r="N6" t="n">
+        <v>510809.2768240049</v>
+      </c>
+      <c r="O6" t="n">
+        <v>510809.2768240052</v>
+      </c>
+      <c r="P6" t="n">
         <v>510809.276824005</v>
-      </c>
-      <c r="G6" t="n">
-        <v>510809.2768240049</v>
-      </c>
-      <c r="H6" t="n">
-        <v>510809.2768240054</v>
-      </c>
-      <c r="I6" t="n">
-        <v>510809.2768240047</v>
-      </c>
-      <c r="J6" t="n">
-        <v>461744.3320954606</v>
-      </c>
-      <c r="K6" t="n">
-        <v>469191.7523713321</v>
-      </c>
-      <c r="L6" t="n">
-        <v>437069.9744238095</v>
-      </c>
-      <c r="M6" t="n">
-        <v>378201.9830950781</v>
-      </c>
-      <c r="N6" t="n">
-        <v>510809.2768240051</v>
-      </c>
-      <c r="O6" t="n">
-        <v>510809.2768240051</v>
-      </c>
-      <c r="P6" t="n">
-        <v>510809.2768240052</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955702</v>
+        <v>687.6696919955689</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537556</v>
+        <v>349.229934453754</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26817,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826658</v>
+        <v>139.1997510826643</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219689</v>
+        <v>246.3952001219704</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874358</v>
+        <v>161.7043472874341</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462833</v>
+        <v>291.3548976462847</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874358</v>
+        <v>161.7043472874346</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462835</v>
+        <v>291.3548976462846</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874358</v>
+        <v>161.7043472874341</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462833</v>
+        <v>291.3548976462847</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.4373502290976</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.404782905942</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>230.540821221378</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>67.31132986476314</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681313</v>
       </c>
       <c r="U3" t="n">
-        <v>174.6519842304896</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>82.31086348199463</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,10 +27596,10 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>213.3704127398893</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972501</v>
+        <v>33.50390720972655</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.45310716692893</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>117.6045682586287</v>
+        <v>57.64611128795741</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>354.8579609616885</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>67.18159701430427</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,7 +27712,7 @@
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>97.95007950277719</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>151.70701884877</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.11249053169492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285478</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057216</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704886</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>31.57711291424829</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>214.8320169546652</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>170.5778489928019</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>24.65955477810894</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.91572488155086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.35127896428318e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354049</v>
+        <v>2.764501274354044</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597841</v>
+        <v>28.31194867597836</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>106.5784353795344</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342072</v>
+        <v>234.6335900342067</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776141</v>
+        <v>351.6549289776135</v>
       </c>
       <c r="L5" t="n">
-        <v>436.259034852627</v>
+        <v>436.2590348526261</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904208</v>
+        <v>485.4222343904198</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361793</v>
+        <v>493.2768736361783</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893212</v>
+        <v>465.7873640893202</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787055</v>
+        <v>397.5387388787047</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.535036990901</v>
+        <v>298.5350369909004</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751427</v>
+        <v>173.6556031751423</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934296</v>
+        <v>62.99607278934283</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>12.10160432848483</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483239</v>
+        <v>0.2211601019483234</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782925</v>
+        <v>1.479138582782922</v>
       </c>
       <c r="H6" t="n">
-        <v>14.2853647337193</v>
+        <v>14.28536473371927</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721913</v>
+        <v>50.92648190721902</v>
       </c>
       <c r="J6" t="n">
-        <v>139.746158823364</v>
+        <v>139.7461588233637</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698199</v>
+        <v>238.8484438698194</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117048</v>
+        <v>321.1612085117042</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375858</v>
+        <v>374.779982137585</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721257</v>
+        <v>384.6992930721249</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536198</v>
+        <v>351.9246960536191</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122938</v>
+        <v>282.4505948122932</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>188.8107426022551</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103111</v>
+        <v>91.83634113103092</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020036</v>
+        <v>27.47435043020031</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603103</v>
+        <v>5.96196648060309</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729772</v>
+        <v>0.09731174886729753</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.240060100319878</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920767</v>
+        <v>11.02526161920765</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2919891987106</v>
+        <v>37.29198919871053</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261556</v>
+        <v>87.67224909261539</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>144.0724371098913</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966485</v>
+        <v>184.3631170966481</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619609</v>
+        <v>194.3850573619605</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698597</v>
+        <v>189.7630151698593</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433955</v>
+        <v>175.2768585433952</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968699</v>
+        <v>149.9796324968696</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>103.8381234913309</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983753</v>
+        <v>55.75761141983742</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648373</v>
+        <v>21.61086556648369</v>
       </c>
       <c r="T7" t="n">
-        <v>5.29843861045767</v>
+        <v>5.29843861045766</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562993</v>
+        <v>0.0676396418356298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -32075,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32312,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32338,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>471.1883883160951</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33035,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P27" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,28 +33265,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>346.9084613860368</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>587.1221002143859</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>698.850866879865</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>487.5039436775321</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062398</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>100.2010091933412</v>
       </c>
       <c r="P4" t="n">
-        <v>98.86065188594053</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752092</v>
+        <v>53.58768550752043</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326336</v>
+        <v>131.5650779326329</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826398</v>
+        <v>200.4926198826389</v>
       </c>
       <c r="M5" t="n">
-        <v>255.076001163148</v>
+        <v>255.0760011631471</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395884</v>
+        <v>263.8638100395873</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676344</v>
+        <v>235.6891526676335</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234359</v>
+        <v>166.3057431234352</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645152</v>
+        <v>76.22934711645095</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669728</v>
+        <v>12.90853215669699</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954609</v>
+        <v>101.0070048954605</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318306</v>
+        <v>182.60682873183</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155674</v>
+        <v>232.6459482155666</v>
       </c>
       <c r="N6" t="n">
-        <v>349.2299344537556</v>
+        <v>253.3575809887916</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091754</v>
+        <v>209.3284516091747</v>
       </c>
       <c r="P6" t="n">
-        <v>246.2537688543314</v>
+        <v>148.476187397963</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623394</v>
+        <v>242.4789034375628</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840087</v>
+        <v>121.8029452840084</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569646</v>
+        <v>211.9531423569642</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238015</v>
+        <v>233.9689343238011</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490883</v>
+        <v>233.8951875490879</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574352</v>
+        <v>199.8619864574349</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>147.2581917617631</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963672</v>
+        <v>17.67608023963652</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>474.0150488837098</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>130.3364854949993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>328.5921438716507</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P27" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>212.9340539717066</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5258557699415</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.7168329578466</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>356.1622315941988</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2438002.158932508</v>
+        <v>2433699.997036043</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>182.55701200868</v>
+        <v>146.9311922907016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S3" t="n">
-        <v>82.45891482618649</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>159.2537148754043</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>124.4693923135016</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>74.5843725714786</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.229934453754</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>349.229934453754</v>
+        <v>349.229934453757</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>349.229934453757</v>
       </c>
       <c r="F5" t="n">
-        <v>349.229934453754</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>57.68027527909255</v>
+        <v>322.2033565087795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908715</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969025</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.59326092442512</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419606</v>
+        <v>38.47015094419586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612213</v>
+        <v>8.321493021611872</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.97567692853433</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057387</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573321</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>254.674276800407</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.6509266757382</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>192.0440287870462</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>282.7385435031556</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>227.4780885457191</v>
+        <v>230.8127283073657</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>122.602876259996</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>107.1685137621111</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833859</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>182.4326803923967</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,10 +2134,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576178</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>33.55293486399931</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.36993339924405</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>253.3932148259954</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>65.44930784064712</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>3.475606507923219</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634789</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>245.879692121443</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>122.4770547252864</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>23.62554568141394</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3243999861102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.2426392372651</v>
+        <v>549.2024635036616</v>
       </c>
       <c r="C2" t="n">
-        <v>578.2426392372651</v>
+        <v>359.7826784871771</v>
       </c>
       <c r="D2" t="n">
-        <v>578.2426392372651</v>
+        <v>359.7826784871771</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207803</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="F2" t="n">
-        <v>199.4030692042955</v>
+        <v>163.417392721489</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>738.622248520147</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372651</v>
+        <v>738.6222485201462</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843278</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S3" t="n">
-        <v>639.6274591265636</v>
+        <v>722.919292284327</v>
       </c>
       <c r="T3" t="n">
-        <v>450.2076741100789</v>
+        <v>722.919292284327</v>
       </c>
       <c r="U3" t="n">
-        <v>450.2076741100789</v>
+        <v>722.919292284327</v>
       </c>
       <c r="V3" t="n">
-        <v>450.2076741100789</v>
+        <v>533.4995072678423</v>
       </c>
       <c r="W3" t="n">
-        <v>450.2076741100789</v>
+        <v>344.0797222513577</v>
       </c>
       <c r="X3" t="n">
-        <v>450.2076741100789</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>450.2076741100789</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.8348293743325</v>
+        <v>481.9679628959414</v>
       </c>
       <c r="C4" t="n">
-        <v>317.8986464464256</v>
+        <v>313.0317799680344</v>
       </c>
       <c r="D4" t="n">
-        <v>317.8986464464256</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E4" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>373.5399563830971</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638719</v>
+        <v>559.1902876777536</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652797</v>
+        <v>721.9284911143037</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846274</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768593</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="S4" t="n">
-        <v>486.8348293743325</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="T4" t="n">
-        <v>486.8348293743325</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="U4" t="n">
-        <v>486.8348293743325</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="V4" t="n">
-        <v>486.8348293743325</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="W4" t="n">
-        <v>486.8348293743325</v>
+        <v>671.387747912426</v>
       </c>
       <c r="X4" t="n">
-        <v>486.8348293743325</v>
+        <v>671.387747912426</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.8348293743325</v>
+        <v>481.9679628959414</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.6632416022318</v>
+        <v>1065.856850471457</v>
       </c>
       <c r="C5" t="n">
-        <v>896.6632416022318</v>
+        <v>1065.856850471457</v>
       </c>
       <c r="D5" t="n">
-        <v>543.9057320529853</v>
+        <v>713.0993409222076</v>
       </c>
       <c r="E5" t="n">
-        <v>543.9057320529853</v>
+        <v>360.3418313729581</v>
       </c>
       <c r="F5" t="n">
-        <v>191.1482225037388</v>
+        <v>353.3963306237546</v>
       </c>
       <c r="G5" t="n">
-        <v>132.8853181814231</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="H5" t="n">
-        <v>132.8853181814231</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630032</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874563</v>
+        <v>80.99020340874654</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620523</v>
+        <v>211.2396305620546</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458648</v>
+        <v>409.7273242458687</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973804</v>
+        <v>662.2525653973859</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365717</v>
+        <v>923.4777373365789</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477529</v>
+        <v>1156.809998477538</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.45268416973</v>
+        <v>1321.45268416974</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815016</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815016</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="S5" t="n">
-        <v>1249.420751151478</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="T5" t="n">
-        <v>1249.420751151478</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="U5" t="n">
-        <v>1249.420751151478</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="V5" t="n">
-        <v>1249.420751151478</v>
+        <v>1065.856850471457</v>
       </c>
       <c r="W5" t="n">
-        <v>1249.420751151478</v>
+        <v>1065.856850471457</v>
       </c>
       <c r="X5" t="n">
-        <v>1249.420751151478</v>
+        <v>1065.856850471457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.420751151478</v>
+        <v>1065.856850471457</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.79713308377109</v>
+        <v>550.4496965895928</v>
       </c>
       <c r="C6" t="n">
-        <v>66.79713308377109</v>
+        <v>375.9966673084658</v>
       </c>
       <c r="D6" t="n">
-        <v>66.79713308377109</v>
+        <v>227.0622576472146</v>
       </c>
       <c r="E6" t="n">
-        <v>66.79713308377109</v>
+        <v>213.3316910568861</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377109</v>
+        <v>66.79713308377113</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377109</v>
+        <v>66.79713308377113</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377109</v>
+        <v>66.79713308377113</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630032</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143034</v>
+        <v>40.71784159143112</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379362</v>
+        <v>332.4282120100569</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824479</v>
+        <v>513.2089724545698</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158589</v>
+        <v>743.5284611879822</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947626</v>
+        <v>994.3524663668874</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887846</v>
+        <v>1201.587633459972</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411829</v>
+        <v>1348.579058983956</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815016</v>
+        <v>1396.919737815028</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308337</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.84871388042</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="T6" t="n">
-        <v>1046.684307603432</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="U6" t="n">
-        <v>818.5589840356466</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="V6" t="n">
-        <v>583.4068758039039</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="W6" t="n">
-        <v>329.1695190757022</v>
+        <v>1134.276832580148</v>
       </c>
       <c r="X6" t="n">
-        <v>121.3180188701694</v>
+        <v>926.4253323746148</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.79713308377109</v>
+        <v>718.6650336096609</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.68276952807546</v>
+        <v>472.8580752489398</v>
       </c>
       <c r="C7" t="n">
-        <v>33.68276952807546</v>
+        <v>472.8580752489398</v>
       </c>
       <c r="D7" t="n">
-        <v>33.68276952807546</v>
+        <v>322.7414358366041</v>
       </c>
       <c r="E7" t="n">
-        <v>33.68276952807546</v>
+        <v>174.8283422542109</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807546</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807546</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807546</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807546</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630032</v>
+        <v>27.93839475630056</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874686</v>
+        <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208632</v>
+        <v>358.3569215208647</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014264</v>
+        <v>589.9861665014286</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750234</v>
+        <v>821.5424021750263</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767884</v>
+        <v>1019.405768767887</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612029</v>
+        <v>1165.191378612034</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049269</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950954</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="S7" t="n">
-        <v>1059.927283950954</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="T7" t="n">
-        <v>835.0311720137584</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="U7" t="n">
-        <v>577.784427770923</v>
+        <v>893.5478801556828</v>
       </c>
       <c r="V7" t="n">
-        <v>323.0999395650361</v>
+        <v>893.5478801556828</v>
       </c>
       <c r="W7" t="n">
-        <v>33.68276952807546</v>
+        <v>654.5065400791796</v>
       </c>
       <c r="X7" t="n">
-        <v>33.68276952807546</v>
+        <v>654.5065400791796</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.68276952807546</v>
+        <v>654.5065400791796</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454.537269016651</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="C8" t="n">
-        <v>1085.574752076239</v>
+        <v>1862.313924116173</v>
       </c>
       <c r="D8" t="n">
-        <v>727.3090534694886</v>
+        <v>1504.048225509422</v>
       </c>
       <c r="E8" t="n">
-        <v>727.3090534694886</v>
+        <v>1118.259972911178</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>707.2740681215703</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4849,7 +4849,7 @@
         <v>2231.276441056584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.137109080772</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,7 +4886,7 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
         <v>801.944955774447</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.0729169938204</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
         <v>198.1367340659135</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>884.4796379287984</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W10" t="n">
-        <v>595.0624678918377</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X10" t="n">
-        <v>367.0729169938204</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y10" t="n">
-        <v>367.0729169938204</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2271.666355830531</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2052.064890853472</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>734.6461798836018</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>584.529540471266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>436.6164468888729</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>436.6164468888729</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>269.4203476037529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>127.708516445951</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532801</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253733</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1721.508338262028</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1721.508338262028</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1432.091168225067</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.10161732705</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3090381835199</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3113.844599961805</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>2944.908417033898</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>2794.791777621562</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>2794.791777621562</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4288.376853076439</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>4033.692364870552</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>3744.275194833592</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.285643935575</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.493064792045</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,61 +6928,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7177,7 +7177,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1055.185257670615</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>886.249074742708</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>736.1324353303722</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>588.2193417479791</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>441.3293942500687</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1975.033022579363</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1685.615852542402</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1457.626301644385</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1236.833722500854</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7414,16 +7414,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>2733.859482001421</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>2733.859482001421</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>2733.859482001421</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
-        <v>98.86065188594071</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777592</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898978</v>
+        <v>41.92993463898912</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.6499349213323</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213293</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>211.0329012241554</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>73.85777223953347</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788527</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>34.97276993489152</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>47.71290145456621</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>32.7912595632487</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97174018228412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.7088678813209</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>40.64330621514796</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>43.04708356698241</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>143.6212754172139</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>5.19973830615865</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>820626.1599043747</v>
+        <v>820626.1599043749</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597553</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427099</v>
+        <v>178997.5061427135</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731226</v>
+        <v>301519.8707731194</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267246</v>
+        <v>41617.52445267315</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019581</v>
+        <v>73739.3024001951</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806973</v>
+        <v>229588.1389806964</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.8081118427</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184267</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26444,22 +26444,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
+        <v>13606.80811184282</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029164</v>
+        <v>69851.97930029187</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289506.1797183524</v>
+        <v>-289506.1797183522</v>
       </c>
       <c r="C6" t="n">
-        <v>157869.7472211205</v>
+        <v>157869.7472211177</v>
       </c>
       <c r="D6" t="n">
-        <v>96694.4977339145</v>
+        <v>96694.49773391781</v>
       </c>
       <c r="E6" t="n">
-        <v>3323.835199458845</v>
+        <v>2976.455945101886</v>
       </c>
       <c r="F6" t="n">
-        <v>510809.2768240052</v>
+        <v>510461.8975696485</v>
       </c>
       <c r="G6" t="n">
-        <v>510809.2768240055</v>
+        <v>510461.8975696477</v>
       </c>
       <c r="H6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.8975696478</v>
       </c>
       <c r="I6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.8975696482</v>
       </c>
       <c r="J6" t="n">
-        <v>461744.3320954604</v>
+        <v>461396.9528411034</v>
       </c>
       <c r="K6" t="n">
-        <v>469191.7523713325</v>
+        <v>468844.3731169747</v>
       </c>
       <c r="L6" t="n">
-        <v>437069.9744238092</v>
+        <v>436722.595169453</v>
       </c>
       <c r="M6" t="n">
-        <v>378201.9830950784</v>
+        <v>377854.6038407213</v>
       </c>
       <c r="N6" t="n">
-        <v>510809.2768240049</v>
+        <v>510461.8975696479</v>
       </c>
       <c r="O6" t="n">
-        <v>510809.2768240052</v>
+        <v>510461.8975696482</v>
       </c>
       <c r="P6" t="n">
-        <v>510809.276824005</v>
+        <v>510461.897569648</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955689</v>
+        <v>687.6696919955715</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>349.229934453754</v>
+        <v>349.229934453757</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26801,13 +26801,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826643</v>
+        <v>139.1997510826671</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219704</v>
+        <v>246.3952001219678</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874341</v>
+        <v>161.7043472874373</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462847</v>
+        <v>291.3548976462818</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874346</v>
+        <v>161.7043472874373</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462846</v>
+        <v>291.3548976462818</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874341</v>
+        <v>161.7043472874373</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462847</v>
+        <v>291.3548976462818</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>230.540821221378</v>
+        <v>266.1666409393564</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>67.31132986476314</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681313</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>46.51927032807319</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>82.31086348199463</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>211.9386257651124</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577507</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972655</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>5.45310716692893</v>
+        <v>5.453107166925975</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>32.7004356185048</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795741</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>354.8579609616885</v>
+        <v>90.33487973200147</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908711</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27675,7 +27675,7 @@
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>144.0518195309758</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277719</v>
+        <v>97.95007950277713</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>151.70701884877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -27794,10 +27794,10 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285478</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.68693102405706</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704886</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>31.57711291424829</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>49.87207166085278</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>214.8320169546652</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>128.8091592697984</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>24.65955477810894</v>
+        <v>21.32491501646226</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.35127896428318e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.744524524838198e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.682175318580511e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354044</v>
+        <v>2.764501274354054</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597836</v>
+        <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795344</v>
+        <v>106.5784353795348</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342067</v>
+        <v>234.6335900342076</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776135</v>
+        <v>351.6549289776148</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526261</v>
+        <v>436.2590348526278</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904198</v>
+        <v>485.4222343904217</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361783</v>
+        <v>493.2768736361801</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893202</v>
+        <v>465.787364089322</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787047</v>
+        <v>397.5387388787062</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909004</v>
+        <v>298.5350369909016</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751423</v>
+        <v>173.655603175143</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934283</v>
+        <v>62.99607278934307</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848483</v>
+        <v>12.10160432848488</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483234</v>
+        <v>0.2211601019483243</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782922</v>
+        <v>1.479138582782928</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371927</v>
+        <v>14.28536473371933</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721902</v>
+        <v>50.92648190721922</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233637</v>
+        <v>139.7461588233642</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698194</v>
+        <v>238.8484438698204</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117042</v>
+        <v>321.1612085117054</v>
       </c>
       <c r="M6" t="n">
-        <v>374.779982137585</v>
+        <v>374.7799821375864</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721249</v>
+        <v>384.6992930721264</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536191</v>
+        <v>351.9246960536204</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122932</v>
+        <v>282.4505948122943</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022551</v>
+        <v>188.8107426022558</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103092</v>
+        <v>91.83634113103126</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020031</v>
+        <v>27.47435043020041</v>
       </c>
       <c r="T6" t="n">
-        <v>5.96196648060309</v>
+        <v>5.961966480603113</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729753</v>
+        <v>0.09731174886729789</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319878</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920765</v>
+        <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871053</v>
+        <v>37.29198919871067</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261539</v>
+        <v>87.67224909261571</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098913</v>
+        <v>144.0724371098918</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966481</v>
+        <v>184.3631170966488</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619605</v>
+        <v>194.3850573619613</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698593</v>
+        <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433952</v>
+        <v>175.2768585433959</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968696</v>
+        <v>149.9796324968702</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913309</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983742</v>
+        <v>55.75761141983763</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648369</v>
+        <v>21.61086556648377</v>
       </c>
       <c r="T7" t="n">
-        <v>5.29843861045766</v>
+        <v>5.29843861045768</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0676396418356298</v>
+        <v>0.06763964183563005</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817563</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933412</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752043</v>
+        <v>53.58768550752134</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326329</v>
+        <v>131.5650779326343</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826389</v>
+        <v>200.4926198826406</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631471</v>
+        <v>255.076001163149</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395873</v>
+        <v>263.8638100395892</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676335</v>
+        <v>235.6891526676353</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234352</v>
+        <v>166.3057431234367</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645095</v>
+        <v>76.22934711645209</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669699</v>
+        <v>12.90853215669753</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954605</v>
+        <v>294.6569398167937</v>
       </c>
       <c r="L6" t="n">
-        <v>182.60682873183</v>
+        <v>182.6068287318312</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155666</v>
+        <v>232.6459482155681</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887916</v>
+        <v>253.3575809887931</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091747</v>
+        <v>209.328451609176</v>
       </c>
       <c r="P6" t="n">
-        <v>148.476187397963</v>
+        <v>148.4761873979641</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375628</v>
+        <v>48.82896851623428</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840084</v>
+        <v>121.802945284009</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569642</v>
+        <v>211.9531423569649</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238011</v>
+        <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490879</v>
+        <v>233.8951875490886</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574349</v>
+        <v>199.8619864574356</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617631</v>
+        <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963652</v>
+        <v>17.6760802396369</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367757</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2433699.997036043</v>
+        <v>2435460.527338827</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9307430.681694256</v>
+        <v>9307430.681694258</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9311922907016</v>
+        <v>21.45987517072688</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.3652991436814</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.53696330591237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714241</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>159.2537148754043</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845829</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>74.5843725714786</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663197</v>
+        <v>116.6889117148677</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>349.229934453757</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.229934453757</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>183.0554054535875</v>
       </c>
       <c r="G5" t="n">
-        <v>322.2033565087795</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2299344537562</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>13.59326092442512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419586</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611872</v>
+        <v>8.321493021611971</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>146.1133145741368</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057159</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>236.6509266757382</v>
+        <v>198.8831102238376</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>282.7385435031556</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>172.3897856971968</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="V10" t="n">
-        <v>230.8127283073657</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.602876259996</v>
+        <v>94.56071137692076</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>101.5168569947382</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>182.4326803923967</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576178</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046939</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>245.879692121443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036616</v>
+        <v>549.202463503662</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871771</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="D2" t="n">
-        <v>359.7826784871771</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="E2" t="n">
         <v>170.3628934706925</v>
       </c>
       <c r="F2" t="n">
-        <v>163.417392721489</v>
+        <v>163.4173927214891</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.6222485201462</v>
+        <v>738.6222485201467</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330558</v>
+        <v>392.4672266287267</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330558</v>
+        <v>218.0141973475997</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330558</v>
+        <v>69.0797876863484</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546597</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017055</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.919292284327</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>722.919292284327</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>722.919292284327</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>722.919292284327</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678423</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W3" t="n">
-        <v>344.0797222513577</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X3" t="n">
-        <v>183.2173839933736</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.2173839933736</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.9679628959414</v>
+        <v>628.8579103938517</v>
       </c>
       <c r="C4" t="n">
-        <v>313.0317799680344</v>
+        <v>459.9217274659449</v>
       </c>
       <c r="D4" t="n">
-        <v>162.9151405556987</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830971</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777536</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143037</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846266</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846266</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846266</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846266</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846266</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846266</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="W4" t="n">
-        <v>671.387747912426</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="X4" t="n">
-        <v>671.387747912426</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.9679628959414</v>
+        <v>628.8579103938517</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1065.856850471457</v>
+        <v>565.6003542586679</v>
       </c>
       <c r="C5" t="n">
-        <v>1065.856850471457</v>
+        <v>565.6003542586679</v>
       </c>
       <c r="D5" t="n">
-        <v>713.0993409222076</v>
+        <v>565.6003542586679</v>
       </c>
       <c r="E5" t="n">
-        <v>360.3418313729581</v>
+        <v>565.6003542586679</v>
       </c>
       <c r="F5" t="n">
-        <v>353.3963306237546</v>
+        <v>380.6959043055493</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630056</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630056</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630056</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874654</v>
+        <v>80.99020340874631</v>
       </c>
       <c r="K5" t="n">
         <v>211.2396305620546</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458687</v>
+        <v>409.7273242458683</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973859</v>
+        <v>662.2525653973851</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365789</v>
+        <v>923.4777373365779</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477538</v>
+        <v>1156.809998477536</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.45268416974</v>
+        <v>1321.452684169738</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815028</v>
+        <v>1249.420751151487</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815028</v>
+        <v>1249.420751151487</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815028</v>
+        <v>1249.420751151487</v>
       </c>
       <c r="V5" t="n">
-        <v>1065.856850471457</v>
+        <v>918.3578638079167</v>
       </c>
       <c r="W5" t="n">
-        <v>1065.856850471457</v>
+        <v>918.3578638079167</v>
       </c>
       <c r="X5" t="n">
-        <v>1065.856850471457</v>
+        <v>918.3578638079167</v>
       </c>
       <c r="Y5" t="n">
-        <v>1065.856850471457</v>
+        <v>565.6003542586679</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550.4496965895928</v>
+        <v>657.0978466772493</v>
       </c>
       <c r="C6" t="n">
-        <v>375.9966673084658</v>
+        <v>482.6448173961223</v>
       </c>
       <c r="D6" t="n">
-        <v>227.0622576472146</v>
+        <v>333.7104077348711</v>
       </c>
       <c r="E6" t="n">
-        <v>213.3316910568861</v>
+        <v>174.4729527294155</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377113</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377113</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377113</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630056</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143112</v>
+        <v>40.71784159143089</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100569</v>
+        <v>140.7147764379374</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545698</v>
+        <v>321.4955368824499</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879822</v>
+        <v>551.8150256158618</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668874</v>
+        <v>802.6390307947665</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459972</v>
+        <v>1009.87419788785</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983956</v>
+        <v>1156.865623411835</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308349</v>
+        <v>1388.514189308346</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308349</v>
+        <v>1388.514189308346</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308349</v>
+        <v>1388.514189308346</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308349</v>
+        <v>1388.514189308346</v>
       </c>
       <c r="V6" t="n">
-        <v>1388.514189308349</v>
+        <v>1388.514189308346</v>
       </c>
       <c r="W6" t="n">
-        <v>1134.276832580148</v>
+        <v>1240.924982667804</v>
       </c>
       <c r="X6" t="n">
-        <v>926.4253323746148</v>
+        <v>1033.073482462271</v>
       </c>
       <c r="Y6" t="n">
-        <v>718.6650336096609</v>
+        <v>825.3131836973173</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.8580752489398</v>
+        <v>499.1246284162396</v>
       </c>
       <c r="C7" t="n">
-        <v>472.8580752489398</v>
+        <v>499.1246284162396</v>
       </c>
       <c r="D7" t="n">
-        <v>322.7414358366041</v>
+        <v>349.0079890039038</v>
       </c>
       <c r="E7" t="n">
-        <v>174.8283422542109</v>
+        <v>349.0079890039038</v>
       </c>
       <c r="F7" t="n">
-        <v>27.93839475630056</v>
+        <v>202.1180415059935</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630056</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630056</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630056</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630056</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874694</v>
+        <v>148.5233105874692</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208647</v>
+        <v>358.3569215208643</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014286</v>
+        <v>589.9861665014279</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750263</v>
+        <v>821.5424021750254</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767887</v>
+        <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612034</v>
+        <v>1165.191378612032</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="U7" t="n">
-        <v>893.5478801556828</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="V7" t="n">
-        <v>893.5478801556828</v>
+        <v>928.0062098433858</v>
       </c>
       <c r="W7" t="n">
-        <v>654.5065400791796</v>
+        <v>727.1141793142569</v>
       </c>
       <c r="X7" t="n">
-        <v>654.5065400791796</v>
+        <v>499.1246284162396</v>
       </c>
       <c r="Y7" t="n">
-        <v>654.5065400791796</v>
+        <v>499.1246284162396</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231.276441056584</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C8" t="n">
-        <v>1862.313924116173</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="D8" t="n">
-        <v>1504.048225509422</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="E8" t="n">
-        <v>1118.259972911178</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="F8" t="n">
-        <v>707.2740681215703</v>
+        <v>707.456282671661</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>291.7515323959499</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4843,13 +4843,13 @@
         <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056584</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056584</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4962,25 +4962,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1403.301950067057</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.884780030097</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>885.8952291320793</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.1026499885492</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="17">
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5782,22 +5782,22 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5983,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>564.5188827892232</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478292</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038308</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="29">
@@ -6445,67 +6445,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,43 +7001,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,13 +7162,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,46 +7177,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,52 +7311,52 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7785,55 +7785,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>107.2331895657665</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711115</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777592</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898912</v>
+        <v>41.92993463898932</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6499349213323</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>193.649934921332</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.22910392194133</v>
+        <v>85.27126880501653</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>150.6207863290898</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.97276993489152</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393389</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>67.52345255978867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.64330621514796</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
@@ -26365,37 +26365,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427135</v>
+        <v>178997.5061427123</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731194</v>
+        <v>301519.8707731202</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.9447285445</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267315</v>
+        <v>41617.52445267298</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.3024001951</v>
+        <v>73739.30240019529</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,43 +26420,43 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806964</v>
+        <v>229588.1389806966</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184267</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184282</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029187</v>
+        <v>69851.97930029182</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289506.1797183522</v>
+        <v>-289506.1797183526</v>
       </c>
       <c r="C6" t="n">
-        <v>157869.7472211177</v>
+        <v>157869.7472211185</v>
       </c>
       <c r="D6" t="n">
-        <v>96694.49773391781</v>
+        <v>96694.49773391706</v>
       </c>
       <c r="E6" t="n">
-        <v>2976.455945101886</v>
+        <v>3289.097274023224</v>
       </c>
       <c r="F6" t="n">
-        <v>510461.8975696485</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="G6" t="n">
-        <v>510461.8975696477</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="H6" t="n">
-        <v>510461.8975696478</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="I6" t="n">
-        <v>510461.8975696482</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="J6" t="n">
-        <v>461396.9528411034</v>
+        <v>461709.5941700245</v>
       </c>
       <c r="K6" t="n">
-        <v>468844.3731169747</v>
+        <v>469157.0144458965</v>
       </c>
       <c r="L6" t="n">
-        <v>436722.595169453</v>
+        <v>437035.2364983738</v>
       </c>
       <c r="M6" t="n">
-        <v>377854.6038407213</v>
+        <v>378167.2451696424</v>
       </c>
       <c r="N6" t="n">
-        <v>510461.8975696479</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="O6" t="n">
-        <v>510461.8975696482</v>
+        <v>510774.5388985694</v>
       </c>
       <c r="P6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985692</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955715</v>
+        <v>687.6696919955707</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.229934453757</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826671</v>
+        <v>139.1997510826661</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219678</v>
+        <v>246.3952001219684</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,37 +27011,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874373</v>
+        <v>161.7043472874364</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462825</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874373</v>
+        <v>161.7043472874366</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462825</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874373</v>
+        <v>161.7043472874364</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462825</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971609</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046878</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>266.1666409393564</v>
+        <v>391.6379580593311</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1081171494886</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550659</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,13 +27517,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310554</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>46.51927032807319</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553087</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>211.9386257651124</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577507</v>
+        <v>101.8957416372271</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>5.453107166925975</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.7004356185048</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>223.820640288124</v>
       </c>
       <c r="G5" t="n">
-        <v>90.33487973200147</v>
+        <v>63.30830178702475</v>
       </c>
       <c r="H5" t="n">
         <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908711</v>
+        <v>103.8974541908713</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.00800420229734</v>
       </c>
     </row>
     <row r="6">
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>144.0518195309758</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277713</v>
+        <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419592</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>105.5816685867828</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
@@ -27797,7 +27797,7 @@
         <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>5.68693102405706</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>49.87207166085278</v>
+        <v>87.63988811275343</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>128.8091592697984</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>128.6287668652086</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386501004</v>
       </c>
       <c r="V10" t="n">
-        <v>21.32491501646226</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.744524524838198e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.682175318580511e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354054</v>
+        <v>2.764501274354051</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597846</v>
+        <v>28.31194867597843</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795348</v>
+        <v>106.5784353795347</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342076</v>
+        <v>234.6335900342073</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776148</v>
+        <v>351.6549289776144</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526278</v>
+        <v>436.2590348526273</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904217</v>
+        <v>485.4222343904211</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361801</v>
+        <v>493.2768736361796</v>
       </c>
       <c r="O5" t="n">
-        <v>465.787364089322</v>
+        <v>465.7873640893214</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787062</v>
+        <v>397.5387388787058</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909016</v>
+        <v>298.5350369909012</v>
       </c>
       <c r="R5" t="n">
-        <v>173.655603175143</v>
+        <v>173.6556031751428</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934307</v>
+        <v>62.996072789343</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848488</v>
+        <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483243</v>
+        <v>0.221160101948324</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782928</v>
+        <v>1.479138582782926</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371933</v>
+        <v>14.28536473371931</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721922</v>
+        <v>50.92648190721916</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233642</v>
+        <v>139.7461588233641</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698204</v>
+        <v>238.8484438698201</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117054</v>
+        <v>321.161208511705</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375864</v>
+        <v>374.779982137586</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721264</v>
+        <v>384.699293072126</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536204</v>
+        <v>351.92469605362</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122943</v>
+        <v>282.450594812294</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022558</v>
+        <v>188.8107426022556</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103126</v>
+        <v>91.83634113103116</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020041</v>
+        <v>27.47435043020038</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603113</v>
+        <v>5.961966480603106</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729789</v>
+        <v>0.09731174886729778</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319883</v>
+        <v>1.240060100319881</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920769</v>
+        <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871067</v>
+        <v>37.29198919871063</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261571</v>
+        <v>87.67224909261562</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098918</v>
+        <v>144.0724371098916</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966488</v>
+        <v>184.3631170966486</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619613</v>
+        <v>194.385057361961</v>
       </c>
       <c r="N7" t="n">
-        <v>189.76301516986</v>
+        <v>189.7630151698598</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433959</v>
+        <v>175.2768585433957</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968702</v>
+        <v>149.97963249687</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913313</v>
+        <v>103.8381234913312</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983763</v>
+        <v>55.75761141983757</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648377</v>
+        <v>21.61086556648375</v>
       </c>
       <c r="T7" t="n">
-        <v>5.29843861045768</v>
+        <v>5.298438610457674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563005</v>
+        <v>0.06763964183562998</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817563</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606959</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>361.7519118779092</v>
@@ -34474,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663197</v>
+        <v>123.344572686378</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068201</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752134</v>
+        <v>53.58768550752106</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326343</v>
+        <v>131.5650779326339</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826406</v>
+        <v>200.49261988264</v>
       </c>
       <c r="M5" t="n">
-        <v>255.076001163149</v>
+        <v>255.0760011631484</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395892</v>
+        <v>263.8638100395887</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676353</v>
+        <v>235.6891526676347</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234367</v>
+        <v>166.3057431234362</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645209</v>
+        <v>76.22934711645175</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669753</v>
+        <v>12.90853215669736</v>
       </c>
       <c r="K6" t="n">
-        <v>294.6569398167937</v>
+        <v>101.0070048954611</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318312</v>
+        <v>182.6068287318308</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155681</v>
+        <v>232.6459482155677</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887931</v>
+        <v>253.3575809887926</v>
       </c>
       <c r="O6" t="n">
-        <v>209.328451609176</v>
+        <v>209.3284516091756</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979641</v>
+        <v>148.4761873979637</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623428</v>
+        <v>242.4789034375661</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.802945284009</v>
+        <v>121.8029452840088</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569649</v>
+        <v>211.9531423569647</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238018</v>
+        <v>233.9689343238016</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490886</v>
+        <v>233.8951875490884</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574356</v>
+        <v>199.8619864574353</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617636</v>
+        <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.6760802396369</v>
+        <v>17.67608023963679</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294966</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367757</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>219.1556674334648</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
